--- a/1. Documents/TienDoCongViec.xlsx
+++ b/1. Documents/TienDoCongViec.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intern.htdang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intern.htdang\Desktop\Business-Management-Web-Application\1. Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,21 +24,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>Date Begin</t>
-  </si>
-  <si>
-    <t>Stt</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Done</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t xml:space="preserve">Nhật ký hoạt động </t>
+  </si>
+  <si>
+    <t>18/02/2020</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>Tên công việc</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Hoàn thành (%)</t>
+  </si>
+  <si>
+    <t>Số ngày làm</t>
+  </si>
+  <si>
+    <t>19/02/2020</t>
+  </si>
+  <si>
+    <t>Cần xác nhận lại với giáo viên</t>
+  </si>
+  <si>
+    <t>Sửa lại ERD_Concept, Tạo ERD_Logical, Tạo database, thêm dữ liệu vào database</t>
+  </si>
+  <si>
+    <t>Dựng chức năng Login, Logout, Register</t>
   </si>
 </sst>
 </file>
@@ -76,9 +94,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,98 +375,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:K15"/>
+  <dimension ref="A2:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="72.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>90</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:J4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>